--- a/MSB/LAGOS_NE_LIMNO_RAWDATA/ME_ANP_post_2006/geographic_coverage.xlsx
+++ b/MSB/LAGOS_NE_LIMNO_RAWDATA/ME_ANP_post_2006/geographic_coverage.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -443,7 +443,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
